--- a/data/concept_rel.xlsx
+++ b/data/concept_rel.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="concept_rel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1750,7 +1748,221 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1760,9 +1972,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1776,31 +1988,31 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -1872,40 +2084,66 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1919,38 +2157,20 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -2011,11 +2231,11 @@
   <sheetPr/>
   <dimension ref="A1:C347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="G351" sqref="G351"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5835,42 +6055,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>